--- a/03_Outputs/测试Form_table.xlsx
+++ b/03_Outputs/测试Form_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LZ\MAX_PPT_Automation\03_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD14694-5534-4CDF-BFAA-1F42C11CFFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387EB9BA-74B8-4484-A194-06A557EF8786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,10 +815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>City Tier:Tier 1,PRODUCT_EN:A DI XIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Restriction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,6 +877,10 @@
   </si>
   <si>
     <t>Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City Tier:Tier 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1279,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
         <v>106</v>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
         <v>120</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>112</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
         <v>113</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>113</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>113</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>112</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" t="s">
         <v>112</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
         <v>113</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
         <v>112</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
         <v>112</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B19" t="s">
         <v>113</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s">
         <v>113</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
         <v>112</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
         <v>112</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s">
         <v>113</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
         <v>109</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s">
         <v>109</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s">
         <v>109</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s">
         <v>109</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s">
         <v>109</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
         <v>109</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s">
         <v>109</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
         <v>109</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s">
         <v>109</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
         <v>109</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s">
         <v>109</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" t="s">
         <v>110</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s">
         <v>110</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B41" t="s">
         <v>110</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42" t="s">
         <v>110</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B44" t="s">
         <v>110</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B46" t="s">
         <v>110</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" t="s">
         <v>110</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
         <v>115</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B50" t="s">
         <v>115</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B51" t="s">
         <v>115</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s">
         <v>115</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
         <v>115</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
         <v>115</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B57" t="s">
         <v>115</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B58" t="s">
         <v>111</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s">
         <v>111</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s">
         <v>111</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
         <v>111</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
         <v>111</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s">
         <v>111</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B64" t="s">
         <v>111</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B65" t="s">
         <v>111</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B66" t="s">
         <v>111</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B67" t="s">
         <v>111</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B68" t="s">
         <v>111</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
         <v>109</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B70" t="s">
         <v>109</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B71" t="s">
         <v>109</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B72" t="s">
         <v>109</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B73" t="s">
         <v>109</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
         <v>109</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B75" t="s">
         <v>109</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s">
         <v>109</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
         <v>109</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
         <v>109</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
         <v>109</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
         <v>109</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
         <v>109</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
         <v>109</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
         <v>109</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B85" t="s">
         <v>109</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B87" t="s">
         <v>109</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B88" t="s">
         <v>109</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
         <v>109</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B90" t="s">
         <v>109</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
         <v>109</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B92" t="s">
         <v>109</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B93" t="s">
         <v>109</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B94" t="s">
         <v>109</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B96" t="s">
         <v>109</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B97" t="s">
         <v>110</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B98" t="s">
         <v>110</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B99" t="s">
         <v>110</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B102" t="s">
         <v>110</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B103" t="s">
         <v>110</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B104" t="s">
         <v>110</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B106" t="s">
         <v>110</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B107" t="s">
         <v>110</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B108" t="s">
         <v>110</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B111" t="s">
         <v>110</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B113" t="s">
         <v>110</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B114" t="s">
         <v>110</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B115" t="s">
         <v>110</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B116" t="s">
         <v>110</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B117" t="s">
         <v>110</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B118" t="s">
         <v>110</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B119" t="s">
         <v>115</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B120" t="s">
         <v>115</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
         <v>115</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
         <v>115</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
         <v>115</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B124" t="s">
         <v>115</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B125" t="s">
         <v>115</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B126" t="s">
         <v>115</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B127" t="s">
         <v>115</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B128" t="s">
         <v>115</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B129" t="s">
         <v>115</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B130" t="s">
         <v>115</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B131" t="s">
         <v>115</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B132" t="s">
         <v>115</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B133" t="s">
         <v>115</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B134" t="s">
         <v>115</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B135" t="s">
         <v>115</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B136" t="s">
         <v>115</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
         <v>115</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B138" t="s">
         <v>115</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B139" t="s">
         <v>115</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B140" t="s">
         <v>115</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B141" t="s">
         <v>123</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="142" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>123</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="143" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>123</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="144" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>123</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="145" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>123</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>123</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="147" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>123</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="148" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>123</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="149" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>123</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="150" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>123</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>122</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>122</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>123</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="154" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>123</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="155" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>123</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="156" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>123</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="157" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>123</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>123</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>123</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>123</v>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>123</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>123</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>123</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>123</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="165" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>123</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="166" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>123</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>123</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>123</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>123</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>123</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>123</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>123</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="173" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>123</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="174" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>123</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="175" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>123</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="176" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>123</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="177" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>123</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="178" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>123</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="179" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>123</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="180" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>123</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="181" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>123</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="182" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>123</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="183" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>123</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="184" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B184" t="s">
         <v>123</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="185" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>123</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="186" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>123</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="187" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>123</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="188" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>123</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>123</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>123</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>123</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="192" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>123</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="193" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>123</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="194" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>123</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>123</v>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="196" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>123</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>123</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="198" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>123</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="199" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>123</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>123</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>123</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>123</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>123</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="204" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>123</v>
@@ -7115,7 +7115,7 @@
     </row>
     <row r="205" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>123</v>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="206" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>123</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="207" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>123</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="208" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>123</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="209" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>123</v>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="210" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>123</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="211" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>123</v>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="212" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>123</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>123</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>123</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>130</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>130</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>130</v>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>130</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>130</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>130</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>112</v>
@@ -7675,7 +7675,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>112</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>112</v>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>112</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>112</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>113</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>113</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>113</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>113</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>113</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>113</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>112</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>112</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>112</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>112</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>112</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>113</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>113</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>113</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>113</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>113</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>113</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>123</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>123</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>123</v>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>123</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>123</v>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>123</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>123</v>
@@ -8502,7 +8502,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>123</v>
@@ -8538,7 +8538,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>123</v>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>123</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>130</v>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>130</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>130</v>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>130</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>130</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>130</v>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>123</v>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>123</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>123</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>123</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>123</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>123</v>
@@ -9012,7 +9012,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>123</v>
@@ -9048,7 +9048,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>123</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>123</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>123</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>123</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>123</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>123</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>123</v>
@@ -9300,7 +9300,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>123</v>
@@ -9336,7 +9336,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>123</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>123</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>123</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>123</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>123</v>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>123</v>
@@ -9552,7 +9552,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>123</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>123</v>
@@ -9624,7 +9624,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>123</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>123</v>
@@ -9696,7 +9696,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>123</v>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>123</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>123</v>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>123</v>
@@ -9840,7 +9840,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>123</v>
@@ -9876,7 +9876,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>123</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>123</v>
@@ -9948,7 +9948,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>123</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>123</v>
@@ -10020,7 +10020,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>123</v>
@@ -10056,7 +10056,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>123</v>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>123</v>
@@ -10128,7 +10128,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>123</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>123</v>
@@ -10200,7 +10200,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>123</v>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>123</v>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>123</v>
@@ -10308,7 +10308,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>123</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>123</v>
@@ -10380,7 +10380,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>123</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>123</v>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>123</v>
@@ -10488,7 +10488,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>123</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>123</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>123</v>
@@ -10596,7 +10596,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>123</v>
@@ -10632,7 +10632,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>123</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>123</v>
@@ -10704,7 +10704,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>123</v>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>123</v>
@@ -10776,7 +10776,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>123</v>
@@ -10812,7 +10812,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>123</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>123</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>123</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>123</v>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>123</v>
@@ -10992,7 +10992,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>123</v>
@@ -11028,7 +11028,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>123</v>
@@ -11064,7 +11064,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>123</v>
@@ -11100,7 +11100,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>123</v>
@@ -11136,7 +11136,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>123</v>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>123</v>
@@ -11208,7 +11208,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>123</v>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>123</v>
@@ -11280,7 +11280,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>123</v>
@@ -11316,7 +11316,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>123</v>
@@ -11352,7 +11352,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>123</v>
@@ -11388,7 +11388,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>123</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>123</v>
@@ -11460,7 +11460,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>123</v>
@@ -11496,7 +11496,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>123</v>
@@ -11532,7 +11532,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>123</v>
@@ -11568,7 +11568,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>123</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>123</v>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>123</v>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>123</v>
@@ -11712,7 +11712,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>123</v>
@@ -11748,7 +11748,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>123</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>123</v>
@@ -11820,7 +11820,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>123</v>
@@ -11856,7 +11856,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>123</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>123</v>
@@ -11928,7 +11928,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>123</v>
@@ -11964,7 +11964,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>123</v>
@@ -12000,7 +12000,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>123</v>
@@ -12036,7 +12036,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>123</v>
@@ -12072,7 +12072,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>123</v>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>123</v>
@@ -12144,7 +12144,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>123</v>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>123</v>
@@ -12216,7 +12216,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>123</v>
@@ -12252,7 +12252,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>123</v>
@@ -12288,7 +12288,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>123</v>
@@ -12324,7 +12324,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>123</v>
@@ -12360,7 +12360,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>123</v>
@@ -12396,7 +12396,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>123</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>123</v>
@@ -12468,7 +12468,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>123</v>
@@ -12504,7 +12504,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>123</v>
@@ -12540,7 +12540,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>123</v>
@@ -12576,7 +12576,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>123</v>
@@ -12612,7 +12612,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>130</v>
@@ -12624,7 +12624,7 @@
         <v>131</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="G365" t="s">
         <v>132</v>
@@ -12644,7 +12644,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>130</v>
@@ -12656,7 +12656,7 @@
         <v>131</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="G366" s="1" t="s">
         <v>132</v>
@@ -12676,7 +12676,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>130</v>
@@ -12688,7 +12688,7 @@
         <v>131</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="G367" s="1" t="s">
         <v>132</v>
@@ -12708,7 +12708,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>130</v>
@@ -12742,7 +12742,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>130</v>
@@ -12776,7 +12776,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>130</v>
@@ -12810,7 +12810,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>130</v>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>130</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>130</v>
@@ -12912,7 +12912,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>130</v>
@@ -12946,7 +12946,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>130</v>
@@ -12980,7 +12980,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>130</v>
@@ -13014,7 +13014,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>130</v>
@@ -13046,7 +13046,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>130</v>
@@ -13078,7 +13078,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>130</v>
@@ -13110,7 +13110,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>130</v>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>130</v>
@@ -13174,7 +13174,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>130</v>
@@ -13206,7 +13206,7 @@
     </row>
     <row r="383" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>221</v>
@@ -13229,7 +13229,7 @@
     </row>
     <row r="384" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>221</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="385" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>221</v>
@@ -13275,7 +13275,7 @@
     </row>
     <row r="386" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>221</v>
@@ -13298,7 +13298,7 @@
     </row>
     <row r="387" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>221</v>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="388" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>221</v>
@@ -13344,7 +13344,7 @@
     </row>
     <row r="389" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>221</v>
@@ -13367,7 +13367,7 @@
     </row>
     <row r="390" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>221</v>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="391" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>221</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="392" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>221</v>
@@ -13436,7 +13436,7 @@
     </row>
     <row r="393" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>221</v>
@@ -13459,7 +13459,7 @@
     </row>
     <row r="394" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>221</v>
@@ -13482,7 +13482,7 @@
     </row>
     <row r="395" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>221</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>221</v>
@@ -13528,7 +13528,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>221</v>
@@ -13551,7 +13551,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>221</v>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>221</v>
@@ -13597,7 +13597,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>221</v>
@@ -13620,7 +13620,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>221</v>
@@ -13643,7 +13643,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>221</v>
@@ -13666,7 +13666,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>221</v>
@@ -13689,7 +13689,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>221</v>
@@ -13712,7 +13712,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>221</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>221</v>
@@ -13758,13 +13758,13 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>6</v>
@@ -13786,13 +13786,13 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>6</v>
@@ -13814,13 +13814,13 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>6</v>
@@ -13842,13 +13842,13 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>6</v>
@@ -13870,13 +13870,13 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>6</v>
@@ -13898,13 +13898,13 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>6</v>
@@ -13926,13 +13926,13 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>6</v>
@@ -13954,13 +13954,13 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>6</v>
@@ -13982,13 +13982,13 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>6</v>
@@ -14010,13 +14010,13 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>6</v>
@@ -14038,13 +14038,13 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>6</v>
@@ -14066,13 +14066,13 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>6</v>
@@ -14094,13 +14094,13 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>6</v>
@@ -14122,13 +14122,13 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>6</v>
@@ -14150,13 +14150,13 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>6</v>
@@ -14178,13 +14178,13 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>6</v>
@@ -14206,13 +14206,13 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>6</v>
@@ -14234,13 +14234,13 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>6</v>
@@ -14262,13 +14262,13 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>6</v>
@@ -14290,13 +14290,13 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>6</v>
@@ -14318,13 +14318,13 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>6</v>
@@ -14346,13 +14346,13 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>6</v>
@@ -14374,13 +14374,13 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>6</v>
@@ -14402,13 +14402,13 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>6</v>
@@ -14430,16 +14430,16 @@
     </row>
     <row r="431" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B431" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F431" s="4" t="s">
         <v>121</v>
@@ -14456,16 +14456,16 @@
     </row>
     <row r="432" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B432" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F432" s="4" t="s">
         <v>121</v>
@@ -14482,16 +14482,16 @@
     </row>
     <row r="433" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F433" s="4" t="s">
         <v>121</v>
@@ -14508,16 +14508,16 @@
     </row>
     <row r="434" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F434" s="4" t="s">
         <v>121</v>
@@ -14534,16 +14534,16 @@
     </row>
     <row r="435" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F435" s="4" t="s">
         <v>121</v>
@@ -14560,16 +14560,16 @@
     </row>
     <row r="436" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C436" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D436" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="D436" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="F436" s="4" t="s">
         <v>121</v>
@@ -14586,16 +14586,16 @@
     </row>
     <row r="437" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B437" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C437" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D437" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="D437" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="F437" s="4" t="s">
         <v>121</v>
@@ -14612,16 +14612,16 @@
     </row>
     <row r="438" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C438" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D438" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="D438" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="F438" s="4" t="s">
         <v>121</v>
@@ -14638,16 +14638,16 @@
     </row>
     <row r="439" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C439" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D439" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="D439" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="F439" s="4" t="s">
         <v>121</v>
@@ -14664,16 +14664,16 @@
     </row>
     <row r="440" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B440" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C440" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D440" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="D440" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="F440" s="4" t="s">
         <v>121</v>
@@ -14690,16 +14690,16 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E441" s="4"/>
       <c r="F441" s="4" t="s">
@@ -14720,16 +14720,16 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B442" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E442" s="4"/>
       <c r="F442" s="4" t="s">
@@ -14750,16 +14750,16 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B443" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E443" s="4"/>
       <c r="F443" s="4" t="s">
@@ -14780,16 +14780,16 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E444" s="4"/>
       <c r="F444" s="4" t="s">
@@ -14810,16 +14810,16 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B445" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E445" s="4"/>
       <c r="F445" s="4" t="s">
@@ -14840,16 +14840,16 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C446" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D446" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D446" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="E446" s="4"/>
       <c r="F446" s="4" t="s">
@@ -14870,16 +14870,16 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C447" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D447" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D447" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="E447" s="4"/>
       <c r="F447" s="4" t="s">
@@ -14900,16 +14900,16 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C448" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D448" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D448" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="E448" s="4"/>
       <c r="F448" s="4" t="s">
@@ -14930,16 +14930,16 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B449" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C449" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D449" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D449" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="E449" s="4"/>
       <c r="F449" s="4" t="s">
@@ -14960,16 +14960,16 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B450" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C450" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D450" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D450" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="E450" s="4"/>
       <c r="F450" s="4" t="s">
@@ -14990,16 +14990,16 @@
     </row>
     <row r="451" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B451" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G451" s="4" t="s">
         <v>8</v>
@@ -15013,16 +15013,16 @@
     </row>
     <row r="452" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G452" s="4" t="s">
         <v>8</v>
@@ -15036,16 +15036,16 @@
     </row>
     <row r="453" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G453" s="4" t="s">
         <v>8</v>
@@ -15059,16 +15059,16 @@
     </row>
     <row r="454" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B454" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G454" s="4" t="s">
         <v>8</v>
@@ -15082,16 +15082,16 @@
     </row>
     <row r="455" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G455" s="4" t="s">
         <v>8</v>
@@ -15105,16 +15105,16 @@
     </row>
     <row r="456" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G456" s="4" t="s">
         <v>8</v>
@@ -15128,16 +15128,16 @@
     </row>
     <row r="457" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G457" s="4" t="s">
         <v>8</v>
@@ -15151,16 +15151,16 @@
     </row>
     <row r="458" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B458" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G458" s="4" t="s">
         <v>8</v>
@@ -15174,16 +15174,16 @@
     </row>
     <row r="459" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G459" s="4" t="s">
         <v>8</v>
@@ -15197,16 +15197,16 @@
     </row>
     <row r="460" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G460" s="4" t="s">
         <v>8</v>
@@ -15220,16 +15220,16 @@
     </row>
     <row r="461" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G461" s="4" t="s">
         <v>8</v>
@@ -15243,16 +15243,16 @@
     </row>
     <row r="462" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B462" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G462" s="4" t="s">
         <v>9</v>
@@ -15266,16 +15266,16 @@
     </row>
     <row r="463" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B463" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G463" s="4" t="s">
         <v>9</v>
@@ -15289,16 +15289,16 @@
     </row>
     <row r="464" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B464" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G464" s="4" t="s">
         <v>9</v>
@@ -15312,16 +15312,16 @@
     </row>
     <row r="465" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B465" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G465" s="4" t="s">
         <v>9</v>
@@ -15335,16 +15335,16 @@
     </row>
     <row r="466" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B466" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G466" s="4" t="s">
         <v>9</v>
@@ -15358,16 +15358,16 @@
     </row>
     <row r="467" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G467" s="4" t="s">
         <v>9</v>
@@ -15381,16 +15381,16 @@
     </row>
     <row r="468" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B468" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G468" s="4" t="s">
         <v>9</v>
@@ -15404,16 +15404,16 @@
     </row>
     <row r="469" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B469" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G469" s="4" t="s">
         <v>9</v>
@@ -15427,16 +15427,16 @@
     </row>
     <row r="470" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B470" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G470" s="4" t="s">
         <v>9</v>
@@ -15450,16 +15450,16 @@
     </row>
     <row r="471" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B471" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G471" s="4" t="s">
         <v>9</v>
@@ -15473,16 +15473,16 @@
     </row>
     <row r="472" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G472" s="4" t="s">
         <v>9</v>
@@ -15496,16 +15496,16 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
@@ -15524,16 +15524,16 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B474" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
@@ -15552,16 +15552,16 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B475" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
@@ -15580,16 +15580,16 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B476" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
@@ -15608,16 +15608,16 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B477" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
@@ -15636,16 +15636,16 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B478" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
@@ -15664,16 +15664,16 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B479" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
@@ -15692,16 +15692,16 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B480" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
@@ -15720,16 +15720,16 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B481" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
@@ -15748,16 +15748,16 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
@@ -15776,16 +15776,16 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B483" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
@@ -15804,16 +15804,16 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B484" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
@@ -15832,16 +15832,16 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B485" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
@@ -15860,16 +15860,16 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B486" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
@@ -15888,16 +15888,16 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B487" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
@@ -15916,16 +15916,16 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B488" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
@@ -15944,16 +15944,16 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B489" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
@@ -15972,16 +15972,16 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B490" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
@@ -16000,16 +16000,16 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B491" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
@@ -16028,16 +16028,16 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B492" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
@@ -16056,16 +16056,16 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B493" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
@@ -16084,16 +16084,16 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B494" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
@@ -16112,16 +16112,16 @@
     </row>
     <row r="495" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B495" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F495" s="4" t="s">
         <v>121</v>
@@ -16138,16 +16138,16 @@
     </row>
     <row r="496" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B496" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F496" s="4" t="s">
         <v>121</v>
@@ -16164,16 +16164,16 @@
     </row>
     <row r="497" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B497" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F497" s="4" t="s">
         <v>121</v>
@@ -16190,16 +16190,16 @@
     </row>
     <row r="498" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B498" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F498" s="4" t="s">
         <v>121</v>
